--- a/menu-excel/menu.xlsx
+++ b/menu-excel/menu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
   <si>
     <t>name</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>Marinated grilled chicken breast with vegetables</t>
-  </si>
-  <si>
-    <t>Main</t>
   </si>
   <si>
     <t>Beef Steak</t>
@@ -241,9 +238,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* \-_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* \-_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -263,7 +260,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,6 +295,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,54 +372,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -345,64 +397,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -415,187 +412,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,41 +626,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,6 +661,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -715,6 +701,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -724,7 +721,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -733,139 +730,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1223,7 +1220,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1374,93 +1371,83 @@
       <c r="C9">
         <v>40</v>
       </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
+      <c r="D9"/>
       <c r="E9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
         <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
       </c>
       <c r="C10">
         <v>60</v>
       </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
+      <c r="D10"/>
       <c r="E10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
         <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
       </c>
       <c r="C11">
         <v>35</v>
       </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
+      <c r="D11"/>
       <c r="E11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
         <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
       </c>
       <c r="C12">
         <v>38</v>
       </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
+      <c r="D12"/>
       <c r="E12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
         <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
       </c>
       <c r="C13">
         <v>30</v>
       </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
+      <c r="D13"/>
       <c r="E13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
         <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
       </c>
       <c r="C14">
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -1468,16 +1455,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
         <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
       </c>
       <c r="C15">
         <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -1485,16 +1472,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
         <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
       </c>
       <c r="C16">
         <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -1502,16 +1489,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
         <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
       </c>
       <c r="C17">
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -1519,16 +1506,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
         <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>44</v>
       </c>
       <c r="C18">
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -1536,16 +1523,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
         <v>45</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -1553,16 +1540,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
         <v>47</v>
-      </c>
-      <c r="B20" t="s">
-        <v>48</v>
       </c>
       <c r="C20">
         <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -1570,16 +1557,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
         <v>50</v>
-      </c>
-      <c r="B21" t="s">
-        <v>51</v>
       </c>
       <c r="C21">
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -1587,16 +1574,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
         <v>52</v>
-      </c>
-      <c r="B22" t="s">
-        <v>53</v>
       </c>
       <c r="C22">
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
@@ -1604,16 +1591,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
         <v>54</v>
-      </c>
-      <c r="B23" t="s">
-        <v>55</v>
       </c>
       <c r="C23">
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
@@ -1621,16 +1608,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
         <v>57</v>
-      </c>
-      <c r="B24" t="s">
-        <v>58</v>
       </c>
       <c r="C24">
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
@@ -1638,87 +1625,87 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" t="s">
         <v>59</v>
-      </c>
-      <c r="B25" t="s">
-        <v>60</v>
       </c>
       <c r="C25">
         <v>12</v>
       </c>
       <c r="D25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" t="s">
         <v>61</v>
-      </c>
-      <c r="E25" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
         <v>63</v>
-      </c>
-      <c r="B26" t="s">
-        <v>64</v>
       </c>
       <c r="C26">
         <v>14</v>
       </c>
       <c r="D26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
         <v>61</v>
-      </c>
-      <c r="E26" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
         <v>65</v>
-      </c>
-      <c r="B27" t="s">
-        <v>66</v>
       </c>
       <c r="C27">
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s">
         <v>68</v>
-      </c>
-      <c r="B28" t="s">
-        <v>69</v>
       </c>
       <c r="C28">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
         <v>71</v>
-      </c>
-      <c r="B29" t="s">
-        <v>72</v>
       </c>
       <c r="C29">
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
